--- a/用例数据/转融通/转融资/转融资到期/新合约/测试结果.xlsx
+++ b/用例数据/转融通/转融资/转融资到期/新合约/测试结果.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3395030-4739-48AF-88A8-2F8CCCCDB596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="645" yWindow="0" windowWidth="28155" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
+    <sheet name="RC_CASHBORROWLOG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +20,722 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="232">
+  <si>
+    <t>INTERIORDESC</t>
+  </si>
+  <si>
+    <t>SERIALNUM</t>
+  </si>
+  <si>
+    <t>BRIEFID</t>
+  </si>
+  <si>
+    <t>CURRENCYID</t>
+  </si>
+  <si>
+    <t>RECKONINGTIME</t>
+  </si>
+  <si>
+    <t>OCCURTIME</t>
+  </si>
+  <si>
+    <t>EXCHID</t>
+  </si>
+  <si>
+    <t>CONTRACTNUM</t>
+  </si>
+  <si>
+    <t>BANKSERIALNUM</t>
+  </si>
+  <si>
+    <t>BANKID</t>
+  </si>
+  <si>
+    <t>ACCTID</t>
+  </si>
+  <si>
+    <t>ACCTNAME</t>
+  </si>
+  <si>
+    <t>BRANCHID</t>
+  </si>
+  <si>
+    <t>REGID</t>
+  </si>
+  <si>
+    <t>STKID</t>
+  </si>
+  <si>
+    <t>STKNAME</t>
+  </si>
+  <si>
+    <t>STKTYPE</t>
+  </si>
+  <si>
+    <t>TRADETYPE</t>
+  </si>
+  <si>
+    <t>OPTMODE</t>
+  </si>
+  <si>
+    <t>OPTID</t>
+  </si>
+  <si>
+    <t>DESKID</t>
+  </si>
+  <si>
+    <t>ORDERTYPE</t>
+  </si>
+  <si>
+    <t>KNOCKQTY</t>
+  </si>
+  <si>
+    <t>KNOCKPRICE</t>
+  </si>
+  <si>
+    <t>KNOCKTIME</t>
+  </si>
+  <si>
+    <t>RECKONINGAMT</t>
+  </si>
+  <si>
+    <t>KNOCKAMT</t>
+  </si>
+  <si>
+    <t>POSTAMT</t>
+  </si>
+  <si>
+    <t>POSTQTY</t>
+  </si>
+  <si>
+    <t>STAMPTAX</t>
+  </si>
+  <si>
+    <t>STANDARDCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>COMMISION</t>
+  </si>
+  <si>
+    <t>TRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>RECKONINGFEE</t>
+  </si>
+  <si>
+    <t>TRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>PERORDERFEE</t>
+  </si>
+  <si>
+    <t>WITHDRAWFEE</t>
+  </si>
+  <si>
+    <t>KNOCKFEE</t>
+  </si>
+  <si>
+    <t>HANDLINGFEE</t>
+  </si>
+  <si>
+    <t>STKMNGFEE</t>
+  </si>
+  <si>
+    <t>EXCHTRANSFEE</t>
+  </si>
+  <si>
+    <t>VENTUREFEE</t>
+  </si>
+  <si>
+    <t>OPTLEVEL</t>
+  </si>
+  <si>
+    <t>CUSTTYPE</t>
+  </si>
+  <si>
+    <t>CUSTID</t>
+  </si>
+  <si>
+    <t>CUSTNAME</t>
+  </si>
+  <si>
+    <t>BROKERID</t>
+  </si>
+  <si>
+    <t>OPTBRANCHID</t>
+  </si>
+  <si>
+    <t>COSTCENTERID</t>
+  </si>
+  <si>
+    <t>NOTENUM</t>
+  </si>
+  <si>
+    <t>DEPOSITINTEREST</t>
+  </si>
+  <si>
+    <t>DEPOSITSUM</t>
+  </si>
+  <si>
+    <t>SALESID</t>
+  </si>
+  <si>
+    <t>UNDOFLAG</t>
+  </si>
+  <si>
+    <t>CHECKORCASH</t>
+  </si>
+  <si>
+    <t>ACCOUNTINGFLAG</t>
+  </si>
+  <si>
+    <t>AUDITOPTID1</t>
+  </si>
+  <si>
+    <t>AUDITOPTID2</t>
+  </si>
+  <si>
+    <t>GETACCOUNTDATE</t>
+  </si>
+  <si>
+    <t>GETACCOUNTNUM</t>
+  </si>
+  <si>
+    <t>MEMO</t>
+  </si>
+  <si>
+    <t>ACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>FULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>BANKACCTID</t>
+  </si>
+  <si>
+    <t>BANKAMT</t>
+  </si>
+  <si>
+    <t>RIGHTOWNFLAG</t>
+  </si>
+  <si>
+    <t>SELFFLAG</t>
+  </si>
+  <si>
+    <t>BANKCONTRACTNUM</t>
+  </si>
+  <si>
+    <t>OFFERTIME</t>
+  </si>
+  <si>
+    <t>CHARGETYPE</t>
+  </si>
+  <si>
+    <t>DISCOUNTAMT</t>
+  </si>
+  <si>
+    <t>OVERDUEAMT</t>
+  </si>
+  <si>
+    <t>CONFIRMRESULT</t>
+  </si>
+  <si>
+    <t>AUDITOPTID</t>
+  </si>
+  <si>
+    <t>CONFIRMTIME</t>
+  </si>
+  <si>
+    <t>TODAYCHARGEFLAG</t>
+  </si>
+  <si>
+    <t>RECKONINGCHECKFLAG</t>
+  </si>
+  <si>
+    <t>STKRECKCHKFLAG</t>
+  </si>
+  <si>
+    <t>CUSTODYMODE</t>
+  </si>
+  <si>
+    <t>CONFIRMFEE</t>
+  </si>
+  <si>
+    <t>AGENCYFEE</t>
+  </si>
+  <si>
+    <t>ORDERSTKID</t>
+  </si>
+  <si>
+    <t>PRICE1</t>
+  </si>
+  <si>
+    <t>PRICE2</t>
+  </si>
+  <si>
+    <t>INTERNALBIZMARK</t>
+  </si>
+  <si>
+    <t>CREDITSTOCKFLAG</t>
+  </si>
+  <si>
+    <t>TRANSACTIONREF</t>
+  </si>
+  <si>
+    <t>RMSTRADEID</t>
+  </si>
+  <si>
+    <t>INTERESTMODE</t>
+  </si>
+  <si>
+    <t>SETTLEDATE</t>
+  </si>
+  <si>
+    <t>KNOCKQTYF</t>
+  </si>
+  <si>
+    <t>CUSTBANKID</t>
+  </si>
+  <si>
+    <t>INTERNALORDERTYPE</t>
+  </si>
+  <si>
+    <t>CUSTBANKACCTID</t>
+  </si>
+  <si>
+    <t>CUSTBANKTRANSPERSION</t>
+  </si>
+  <si>
+    <t>TACODE</t>
+  </si>
+  <si>
+    <t>SETTLEMENTMETHOD</t>
+  </si>
+  <si>
+    <t>PROJECTID</t>
+  </si>
+  <si>
+    <t>DELIVERYTYPE</t>
+  </si>
+  <si>
+    <t>TAACCOUNTID</t>
+  </si>
+  <si>
+    <t>CREDITFUNDFLAG</t>
+  </si>
+  <si>
+    <t>SUBCLIENTID</t>
+  </si>
+  <si>
+    <t>ISSOLICITED</t>
+  </si>
+  <si>
+    <t>BASKETID</t>
+  </si>
+  <si>
+    <t>EXTERIORACCTID</t>
+  </si>
+  <si>
+    <t>TDELIVERFLAG</t>
+  </si>
+  <si>
+    <t>OFFSETFLAG</t>
+  </si>
+  <si>
+    <t>EXCHMARGINAMT</t>
+  </si>
+  <si>
+    <t>CUSTMARGINAMT</t>
+  </si>
+  <si>
+    <t>CLOSEPNL</t>
+  </si>
+  <si>
+    <t>REALTIMEPNL</t>
+  </si>
+  <si>
+    <t>OPENDATE</t>
+  </si>
+  <si>
+    <t>OPENKNOCKCODE</t>
+  </si>
+  <si>
+    <t>TRADECURRENCYID</t>
+  </si>
+  <si>
+    <t>EXCHRATE</t>
+  </si>
+  <si>
+    <t>TRADERECKONINGAMT</t>
+  </si>
+  <si>
+    <t>SETTLEKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEFULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>SETTLESTAMPTAX</t>
+  </si>
+  <si>
+    <t>SETTLECOMMISION</t>
+  </si>
+  <si>
+    <t>SETTLETRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLERECKONINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLETRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>SETTLEHANDLINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLESTKMNGFEE</t>
+  </si>
+  <si>
+    <t>SETTLEEXCHTRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLEVENTUREFEE</t>
+  </si>
+  <si>
+    <t>SECUAMT</t>
+  </si>
+  <si>
+    <t>SETTLESECUAMT</t>
+  </si>
+  <si>
+    <t>PERMITPHONE</t>
+  </si>
+  <si>
+    <t>OPERATIONMAC</t>
+  </si>
+  <si>
+    <t>SHAREATTR</t>
+  </si>
+  <si>
+    <t>SETTLEMODE</t>
+  </si>
+  <si>
+    <t>FIRSTOTHERFEE</t>
+  </si>
+  <si>
+    <t>SECONDOTHERFEE</t>
+  </si>
+  <si>
+    <t>LISTEDSTATUS</t>
+  </si>
+  <si>
+    <t>ADJUSTEDFEEFLAG</t>
+  </si>
+  <si>
+    <t>BUSINESSCODE</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>转融资合约</t>
+  </si>
+  <si>
+    <t>30150002</t>
+  </si>
+  <si>
+    <t>005_005_060</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>20230802235959</t>
+  </si>
+  <si>
+    <t>20230803093755</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0000005177</t>
+  </si>
+  <si>
+    <t>000000005801</t>
+  </si>
+  <si>
+    <t>RZRQ_券商信用专用</t>
+  </si>
+  <si>
+    <t>ZY0000</t>
+  </si>
+  <si>
+    <t>HA58010000</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>99990</t>
+  </si>
+  <si>
+    <t>M0001</t>
+  </si>
+  <si>
+    <t>20230802000000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>931329876.09</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>99998</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>60462</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>NONDVP</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>30150003</t>
+  </si>
+  <si>
+    <t>0000005211</t>
+  </si>
+  <si>
+    <t>SA58010000</t>
+  </si>
+  <si>
+    <t>C00001</t>
+  </si>
+  <si>
+    <t>932329876.09</t>
+  </si>
+  <si>
+    <t>30150004</t>
+  </si>
+  <si>
+    <t>0000005179</t>
+  </si>
+  <si>
+    <t>933329876.09</t>
+  </si>
+  <si>
+    <t>CONTRACTNO</t>
+  </si>
+  <si>
+    <t>APPSHEETSERIALNO</t>
+  </si>
+  <si>
+    <t>ORIGCONTRACTNO</t>
+  </si>
+  <si>
+    <t>CONTRACTTYPE</t>
+  </si>
+  <si>
+    <t>CONTRACTSTATUS</t>
+  </si>
+  <si>
+    <t>TERM</t>
+  </si>
+  <si>
+    <t>BUYRATE</t>
+  </si>
+  <si>
+    <t>ORDERTIME</t>
+  </si>
+  <si>
+    <t>CLOSEDATE</t>
+  </si>
+  <si>
+    <t>ROLLBACKDATE</t>
+  </si>
+  <si>
+    <t>CONTRACTAMT</t>
+  </si>
+  <si>
+    <t>INTEREST</t>
+  </si>
+  <si>
+    <t>OVERDRAFTINTEREST</t>
+  </si>
+  <si>
+    <t>FORFEIT</t>
+  </si>
+  <si>
+    <t>OTHERFEE</t>
+  </si>
+  <si>
+    <t>EXTENDFLAG</t>
+  </si>
+  <si>
+    <t>ISEXTENDCONTRACT</t>
+  </si>
+  <si>
+    <t>TARGETREGID</t>
+  </si>
+  <si>
+    <t>TARGETDESKID</t>
+  </si>
+  <si>
+    <t>APPOINTNO</t>
+  </si>
+  <si>
+    <t>EXTENDSTATUS</t>
+  </si>
+  <si>
+    <t>EXTENDCFMAMT</t>
+  </si>
+  <si>
+    <t>EXTENDAUDITTIME</t>
+  </si>
+  <si>
+    <t>CONTRACTOWNER</t>
+  </si>
+  <si>
+    <t>EXTENDNUMINTRANSIT</t>
+  </si>
+  <si>
+    <t>EXTENAMTINTRANSIT</t>
+  </si>
+  <si>
+    <t>EXECTYPE</t>
+  </si>
+  <si>
+    <t>RECOVERSTATUS</t>
+  </si>
+  <si>
+    <t>RECOVERREASON</t>
+  </si>
+  <si>
+    <t>RECOVERCFMQTY</t>
+  </si>
+  <si>
+    <t>RECOVERCFMAMT</t>
+  </si>
+  <si>
+    <t>RECOVERAPPOINTNO</t>
+  </si>
+  <si>
+    <t>RECOVERAUDITTIME</t>
+  </si>
+  <si>
+    <t>2021032700000006</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>777000000003</t>
+  </si>
+  <si>
+    <t>Name_777003</t>
+  </si>
+  <si>
+    <t>D890143362</t>
+  </si>
+  <si>
+    <t>09XB7</t>
+  </si>
+  <si>
+    <t>.056</t>
+  </si>
+  <si>
+    <t>20230803000000</t>
+  </si>
+  <si>
+    <t>155.56</t>
+  </si>
+  <si>
+    <t>2021032700000040</t>
+  </si>
+  <si>
+    <t>0689900193</t>
+  </si>
+  <si>
+    <t>006595</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20230811000000</t>
+  </si>
+  <si>
+    <t>1088.89</t>
+  </si>
+  <si>
+    <t>2021032700000007</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20230822000000</t>
+  </si>
+  <si>
+    <t>2177.78</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +759,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1041,1870 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:EJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DH2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DH3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DZ3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EF3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EH3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EJ3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DH4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DZ4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EF4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EH4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499A5E08-2E21-420D-835F-FCA09D9F76F2}">
+  <dimension ref="A1:AQ19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>